--- a/Daily/Ljung_Box/Square First Difference/toyota.xlsx
+++ b/Daily/Ljung_Box/Square First Difference/toyota.xlsx
@@ -396,7 +396,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.002657443023116E-05</v>
+        <v>0.5049494235254769</v>
+      </c>
+      <c r="C2">
+        <v>0.4773334238467357</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -404,7 +407,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.3080615743637908</v>
+        <v>0.5507563681121873</v>
+      </c>
+      <c r="C3">
+        <v>0.7592849194698752</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -412,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6.394547907329817</v>
+        <v>0.7250268340463856</v>
       </c>
       <c r="C4">
-        <v>0.01144713788134004</v>
+        <v>0.8673021899655116</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -423,10 +429,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7.321517426831685</v>
+        <v>1.009146865556125</v>
       </c>
       <c r="C5">
-        <v>0.02571299652826799</v>
+        <v>0.9084058688539993</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -434,10 +440,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7.581925616340714</v>
+        <v>1.929379516538505</v>
       </c>
       <c r="C6">
-        <v>0.05549037979968878</v>
+        <v>0.8588279195158087</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -445,10 +451,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8.03896352424136</v>
+        <v>3.066589499205754</v>
       </c>
       <c r="C7">
-        <v>0.09016129298185772</v>
+        <v>0.8004439536080695</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -456,10 +462,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>9.013046348832464</v>
+        <v>3.371008569700607</v>
       </c>
       <c r="C8">
-        <v>0.1085449131193108</v>
+        <v>0.8486933075109327</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -467,10 +473,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10.00963487177365</v>
+        <v>3.892018793796086</v>
       </c>
       <c r="C9">
-        <v>0.12424686009342</v>
+        <v>0.8667320552096998</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -478,10 +484,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>10.69502365528562</v>
+        <v>4.075886141172442</v>
       </c>
       <c r="C10">
-        <v>0.1524862444279375</v>
+        <v>0.90634720131207</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -489,10 +495,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>17.50340705677275</v>
+        <v>7.007887447086202</v>
       </c>
       <c r="C11">
-        <v>0.02527375689844887</v>
+        <v>0.7247001206888279</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -500,10 +506,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>24.38440651807319</v>
+        <v>10.05753545985773</v>
       </c>
       <c r="C12">
-        <v>0.003733208153603326</v>
+        <v>0.5252193455091467</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -511,10 +517,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>28.35269614693834</v>
+        <v>14.59692931439655</v>
       </c>
       <c r="C13">
-        <v>0.001584733291913265</v>
+        <v>0.2642224277736009</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -522,10 +528,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>28.41558291609687</v>
+        <v>14.66424574384023</v>
       </c>
       <c r="C14">
-        <v>0.002794860560688453</v>
+        <v>0.3287794014022632</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -533,10 +539,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>28.43216491705201</v>
+        <v>14.99919822797827</v>
       </c>
       <c r="C15">
-        <v>0.004780325965396312</v>
+        <v>0.3782095049517553</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -544,10 +550,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>29.31568641245386</v>
+        <v>16.21488357044047</v>
       </c>
       <c r="C16">
-        <v>0.005903073155831759</v>
+        <v>0.3679159251371103</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -555,10 +561,10 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>30.17223797125013</v>
+        <v>17.35457329330002</v>
       </c>
       <c r="C17">
-        <v>0.007225727004943063</v>
+        <v>0.3630192540808658</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -566,10 +572,10 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>30.46822240362174</v>
+        <v>17.3950857840861</v>
       </c>
       <c r="C18">
-        <v>0.01034073427226389</v>
+        <v>0.4279249064532458</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -577,10 +583,10 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>30.4894419812791</v>
+        <v>17.50175403228274</v>
       </c>
       <c r="C19">
-        <v>0.01562371332750903</v>
+        <v>0.4888997776474461</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -588,10 +594,10 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>30.92965815884117</v>
+        <v>17.87824287545615</v>
       </c>
       <c r="C20">
-        <v>0.02036933944940891</v>
+        <v>0.5305847304097122</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -599,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>30.95192215161746</v>
+        <v>17.89054221535785</v>
       </c>
       <c r="C21">
-        <v>0.029157872008011</v>
+        <v>0.5946186833980935</v>
       </c>
     </row>
   </sheetData>
